--- a/TAP_POM_Framework/data/TC0003.xlsx
+++ b/TAP_POM_Framework/data/TC0003.xlsx
@@ -21,21 +21,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>comapnyname</t>
-  </si>
-  <si>
     <t>company phone</t>
   </si>
   <si>
     <t>website</t>
   </si>
   <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -51,25 +42,26 @@
     <t>kumar</t>
   </si>
   <si>
-    <t>ravi@gmail.com</t>
+    <t>ravii@gmail.com</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,16 +84,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,63 +372,62 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>8456975210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>8456975213</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TAP_POM_Framework/data/TC0003.xlsx
+++ b/TAP_POM_Framework/data/TC0003.xlsx
@@ -42,9 +42,6 @@
     <t>kumar</t>
   </si>
   <si>
-    <t>ravii@gmail.com</t>
-  </si>
-  <si>
     <t>Company name</t>
   </si>
   <si>
@@ -52,16 +49,27 @@
   </si>
   <si>
     <t>last name</t>
+  </si>
+  <si>
+    <t>raviipaul12@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +92,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,7 +383,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +399,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -397,10 +408,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -422,12 +433,15 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>